--- a/DataSheets/program.xlsx
+++ b/DataSheets/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF0725-862B-43CF-B701-F0A09E0149D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D04AE2-ECFA-4BC3-899F-BF47FBA31510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{08500031-AB2A-4646-9C67-36E11DF5EFDC}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{08500031-AB2A-4646-9C67-36E11DF5EFDC}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
